--- a/PertussisByProvinceMonth-china.xlsx
+++ b/PertussisByProvinceMonth-china.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF502B85-83B7-4711-9782-CA84E57B03A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274801DE-6E8D-4369-930A-C3C3CFD6F1BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="39">
   <si>
     <t>地 区</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>甘肃省</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
   </si>
   <si>
     <t>内蒙古</t>
@@ -1101,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3681"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1112,7 +1109,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1254,7 +1251,7 @@
         <v>41306</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>134</v>
@@ -1356,7 +1353,7 @@
         <v>38899</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>375</v>
@@ -2583,7 +2580,7 @@
         <v>38169</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -2855,7 +2852,7 @@
         <v>41518</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103">
         <v>118</v>
@@ -2991,7 +2988,7 @@
         <v>42156</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -3008,7 +3005,7 @@
         <v>38139</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -3093,7 +3090,7 @@
         <v>40299</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C117">
         <v>197</v>
@@ -3110,7 +3107,7 @@
         <v>38047</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C118">
         <v>410</v>
@@ -3130,7 +3127,7 @@
         <v>41760</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C119">
         <v>254</v>
@@ -3470,7 +3467,7 @@
         <v>40940</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C139">
         <v>227</v>
@@ -3674,7 +3671,7 @@
         <v>38384</v>
       </c>
       <c r="B151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4014,7 +4011,7 @@
         <v>40817</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C171">
         <v>143</v>
@@ -4102,7 +4099,7 @@
         <v>40695</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -4204,7 +4201,7 @@
         <v>39783</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -4255,7 +4252,7 @@
         <v>38078</v>
       </c>
       <c r="B185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C185">
         <v>6</v>
@@ -4340,7 +4337,7 @@
         <v>40360</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4425,7 +4422,7 @@
         <v>42125</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -4527,7 +4524,7 @@
         <v>39142</v>
       </c>
       <c r="B201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -4731,7 +4728,7 @@
         <v>39995</v>
       </c>
       <c r="B213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -4833,7 +4830,7 @@
         <v>38261</v>
       </c>
       <c r="B219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C219">
         <v>210</v>
@@ -5258,7 +5255,7 @@
         <v>41852</v>
       </c>
       <c r="B244" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -5737,7 +5734,7 @@
         <v>38018</v>
       </c>
       <c r="B272" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -5754,7 +5751,7 @@
         <v>39295</v>
       </c>
       <c r="B273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C273">
         <v>343</v>
@@ -5788,7 +5785,7 @@
         <v>38231</v>
       </c>
       <c r="B275" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C275">
         <v>230</v>
@@ -5890,7 +5887,7 @@
         <v>40422</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C281">
         <v>114</v>
@@ -6335,7 +6332,7 @@
         <v>39264</v>
       </c>
       <c r="B307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -6369,7 +6366,7 @@
         <v>40087</v>
       </c>
       <c r="B309" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C309">
         <v>72</v>
@@ -6964,7 +6961,7 @@
         <v>39600</v>
       </c>
       <c r="B344" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C344">
         <v>264</v>
@@ -7015,7 +7012,7 @@
         <v>38443</v>
       </c>
       <c r="B347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C347">
         <v>1</v>
@@ -7117,7 +7114,7 @@
         <v>40544</v>
       </c>
       <c r="B353" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C353">
         <v>98</v>
@@ -7355,7 +7352,7 @@
         <v>38899</v>
       </c>
       <c r="B367" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C367">
         <v>3</v>
@@ -7967,7 +7964,7 @@
         <v>40330</v>
       </c>
       <c r="B403" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C403">
         <v>2</v>
@@ -8103,7 +8100,7 @@
         <v>41244</v>
       </c>
       <c r="B411" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C411">
         <v>64</v>
@@ -8718,7 +8715,7 @@
         <v>38899</v>
       </c>
       <c r="B447" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -8820,7 +8817,7 @@
         <v>41334</v>
       </c>
       <c r="B453" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C453">
         <v>120</v>
@@ -8973,7 +8970,7 @@
         <v>41487</v>
       </c>
       <c r="B462" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C462">
         <v>191</v>
@@ -9058,7 +9055,7 @@
         <v>39356</v>
       </c>
       <c r="B467" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -9245,7 +9242,7 @@
         <v>42217</v>
       </c>
       <c r="B478" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -9313,7 +9310,7 @@
         <v>39356</v>
       </c>
       <c r="B482" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C482">
         <v>128</v>
@@ -9483,7 +9480,7 @@
         <v>39904</v>
       </c>
       <c r="B492" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C492">
         <v>2</v>
@@ -9724,7 +9721,7 @@
         <v>38930</v>
       </c>
       <c r="B506" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -9911,7 +9908,7 @@
         <v>38596</v>
       </c>
       <c r="B517" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C517">
         <v>2</v>
@@ -9979,7 +9976,7 @@
         <v>40238</v>
       </c>
       <c r="B521" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C521">
         <v>3</v>
@@ -10251,7 +10248,7 @@
         <v>38108</v>
       </c>
       <c r="B537" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C537">
         <v>1</v>
@@ -10421,7 +10418,7 @@
         <v>39022</v>
       </c>
       <c r="B547" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C547">
         <v>115</v>
@@ -10645,7 +10642,7 @@
         <v>42248</v>
       </c>
       <c r="B560" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -10781,7 +10778,7 @@
         <v>38899</v>
       </c>
       <c r="B568" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C568">
         <v>1</v>
@@ -10968,7 +10965,7 @@
         <v>40848</v>
       </c>
       <c r="B579" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C579">
         <v>0</v>
@@ -11084,7 +11081,7 @@
         <v>38169</v>
       </c>
       <c r="B586" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C586">
         <v>1</v>
@@ -11356,7 +11353,7 @@
         <v>41456</v>
       </c>
       <c r="B602" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C602">
         <v>267</v>
@@ -11407,7 +11404,7 @@
         <v>42339</v>
       </c>
       <c r="B605" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C605">
         <v>332</v>
@@ -11478,7 +11475,7 @@
         <v>38808</v>
       </c>
       <c r="B609" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C609">
         <v>253</v>
@@ -11549,7 +11546,7 @@
         <v>40483</v>
       </c>
       <c r="B613" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C613">
         <v>89</v>
@@ -11600,7 +11597,7 @@
         <v>38443</v>
       </c>
       <c r="B616" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C616">
         <v>421</v>
@@ -11651,7 +11648,7 @@
         <v>39934</v>
       </c>
       <c r="B619" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -11855,7 +11852,7 @@
         <v>38078</v>
       </c>
       <c r="B631" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C631">
         <v>2</v>
@@ -11889,7 +11886,7 @@
         <v>38384</v>
       </c>
       <c r="B633" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C633">
         <v>248</v>
@@ -12354,7 +12351,7 @@
         <v>38139</v>
       </c>
       <c r="B660" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C660">
         <v>2</v>
@@ -12558,7 +12555,7 @@
         <v>42339</v>
       </c>
       <c r="B672" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -12643,7 +12640,7 @@
         <v>38565</v>
       </c>
       <c r="B677" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C677">
         <v>429</v>
@@ -12745,7 +12742,7 @@
         <v>41548</v>
       </c>
       <c r="B683" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C683">
         <v>119</v>
@@ -12949,7 +12946,7 @@
         <v>39569</v>
       </c>
       <c r="B695" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -12966,7 +12963,7 @@
         <v>40513</v>
       </c>
       <c r="B696" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C696">
         <v>86</v>
@@ -13051,7 +13048,7 @@
         <v>42036</v>
       </c>
       <c r="B701" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C701">
         <v>360</v>
@@ -13085,7 +13082,7 @@
         <v>39264</v>
       </c>
       <c r="B703" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C703">
         <v>1</v>
@@ -13221,7 +13218,7 @@
         <v>41821</v>
       </c>
       <c r="B711" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C711">
         <v>2</v>
@@ -13442,7 +13439,7 @@
         <v>38047</v>
       </c>
       <c r="B724" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C724">
         <v>2</v>
@@ -13544,7 +13541,7 @@
         <v>38565</v>
       </c>
       <c r="B730" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C730">
         <v>3</v>
@@ -13901,7 +13898,7 @@
         <v>40452</v>
       </c>
       <c r="B751" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C751">
         <v>107</v>
@@ -14241,7 +14238,7 @@
         <v>39083</v>
       </c>
       <c r="B771" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C771">
         <v>1</v>
@@ -14394,7 +14391,7 @@
         <v>39203</v>
       </c>
       <c r="B780" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C780">
         <v>4</v>
@@ -14686,7 +14683,7 @@
         <v>38777</v>
       </c>
       <c r="B797" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C797">
         <v>2</v>
@@ -14788,7 +14785,7 @@
         <v>41852</v>
       </c>
       <c r="B803" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C803">
         <v>1</v>
@@ -15298,7 +15295,7 @@
         <v>38504</v>
       </c>
       <c r="B833" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C833">
         <v>1</v>
@@ -15519,7 +15516,7 @@
         <v>39753</v>
       </c>
       <c r="B846" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C846">
         <v>58</v>
@@ -15757,7 +15754,7 @@
         <v>38596</v>
       </c>
       <c r="B860" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C860">
         <v>1</v>
@@ -15791,7 +15788,7 @@
         <v>39326</v>
       </c>
       <c r="B862" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C862">
         <v>1</v>
@@ -16046,7 +16043,7 @@
         <v>39114</v>
       </c>
       <c r="B877" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C877">
         <v>4</v>
@@ -16199,7 +16196,7 @@
         <v>40603</v>
       </c>
       <c r="B886" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C886">
         <v>222</v>
@@ -16216,7 +16213,7 @@
         <v>39295</v>
       </c>
       <c r="B887" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C887">
         <v>2</v>
@@ -16233,7 +16230,7 @@
         <v>38322</v>
       </c>
       <c r="B888" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C888">
         <v>1</v>
@@ -16743,7 +16740,7 @@
         <v>38961</v>
       </c>
       <c r="B918" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C918">
         <v>116</v>
@@ -16777,7 +16774,7 @@
         <v>41275</v>
       </c>
       <c r="B920" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C920">
         <v>111</v>
@@ -16981,7 +16978,7 @@
         <v>40909</v>
       </c>
       <c r="B932" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C932">
         <v>489</v>
@@ -17049,7 +17046,7 @@
         <v>40299</v>
       </c>
       <c r="B936" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C936">
         <v>1</v>
@@ -17066,7 +17063,7 @@
         <v>39264</v>
       </c>
       <c r="B937" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C937">
         <v>470</v>
@@ -17100,7 +17097,7 @@
         <v>38108</v>
       </c>
       <c r="B939" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C939">
         <v>2</v>
@@ -17406,7 +17403,7 @@
         <v>41852</v>
       </c>
       <c r="B957" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C957">
         <v>525</v>
@@ -17579,7 +17576,7 @@
         <v>39661</v>
       </c>
       <c r="B967" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C967">
         <v>1</v>
@@ -17919,7 +17916,7 @@
         <v>38200</v>
       </c>
       <c r="B987" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C987">
         <v>535</v>
@@ -18024,7 +18021,7 @@
         <v>38169</v>
       </c>
       <c r="B993" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C993">
         <v>2</v>
@@ -18092,7 +18089,7 @@
         <v>38534</v>
       </c>
       <c r="B997" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C997">
         <v>3</v>
@@ -18160,7 +18157,7 @@
         <v>40360</v>
       </c>
       <c r="B1001" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1001">
         <v>1</v>
@@ -18177,7 +18174,7 @@
         <v>40969</v>
       </c>
       <c r="B1002" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1002">
         <v>2</v>
@@ -18211,7 +18208,7 @@
         <v>39264</v>
       </c>
       <c r="B1004" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1004">
         <v>1</v>
@@ -18245,7 +18242,7 @@
         <v>39448</v>
       </c>
       <c r="B1006" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1006">
         <v>1</v>
@@ -18432,7 +18429,7 @@
         <v>39234</v>
       </c>
       <c r="B1017" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1017">
         <v>358</v>
@@ -18636,7 +18633,7 @@
         <v>39387</v>
       </c>
       <c r="B1029" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1029">
         <v>137</v>
@@ -18721,7 +18718,7 @@
         <v>39569</v>
       </c>
       <c r="B1034" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1034">
         <v>2</v>
@@ -18840,7 +18837,7 @@
         <v>41183</v>
       </c>
       <c r="B1041" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1041">
         <v>1</v>
@@ -18925,7 +18922,7 @@
         <v>39508</v>
       </c>
       <c r="B1046" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1046">
         <v>254</v>
@@ -19214,7 +19211,7 @@
         <v>38504</v>
       </c>
       <c r="B1063" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1063">
         <v>5</v>
@@ -19605,7 +19602,7 @@
         <v>38473</v>
       </c>
       <c r="B1086" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1086">
         <v>1</v>
@@ -19656,7 +19653,7 @@
         <v>38749</v>
       </c>
       <c r="B1089" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1089">
         <v>2</v>
@@ -20180,7 +20177,7 @@
         <v>38991</v>
       </c>
       <c r="B1120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1120">
         <v>118</v>
@@ -20200,7 +20197,7 @@
         <v>38108</v>
       </c>
       <c r="B1121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1121">
         <v>2</v>
@@ -20285,7 +20282,7 @@
         <v>40513</v>
       </c>
       <c r="B1126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1126">
         <v>1</v>
@@ -20302,7 +20299,7 @@
         <v>38869</v>
       </c>
       <c r="B1127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1127">
         <v>3</v>
@@ -20489,7 +20486,7 @@
         <v>38108</v>
       </c>
       <c r="B1138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1138">
         <v>711</v>
@@ -20526,7 +20523,7 @@
         <v>38504</v>
       </c>
       <c r="B1140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1140">
         <v>2</v>
@@ -20696,7 +20693,7 @@
         <v>38200</v>
       </c>
       <c r="B1150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1150">
         <v>2</v>
@@ -20951,7 +20948,7 @@
         <v>38687</v>
       </c>
       <c r="B1165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1165">
         <v>2</v>
@@ -21274,7 +21271,7 @@
         <v>38412</v>
       </c>
       <c r="B1184" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C1184">
         <v>2</v>
@@ -21325,7 +21322,7 @@
         <v>38838</v>
       </c>
       <c r="B1187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1187">
         <v>1</v>
@@ -21410,7 +21407,7 @@
         <v>38838</v>
       </c>
       <c r="B1192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1192">
         <v>369</v>
@@ -21699,7 +21696,7 @@
         <v>42309</v>
       </c>
       <c r="B1209" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1209">
         <v>1</v>
@@ -22056,7 +22053,7 @@
         <v>40725</v>
       </c>
       <c r="B1230" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1230">
         <v>340</v>
@@ -22464,7 +22461,7 @@
         <v>41640</v>
       </c>
       <c r="B1254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1254">
         <v>116</v>
@@ -22515,7 +22512,7 @@
         <v>38626</v>
       </c>
       <c r="B1257" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1257">
         <v>1</v>
@@ -22566,7 +22563,7 @@
         <v>40787</v>
       </c>
       <c r="B1260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1260">
         <v>156</v>
@@ -22835,7 +22832,7 @@
         <v>38777</v>
       </c>
       <c r="B1276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1276">
         <v>207</v>
@@ -23022,7 +23019,7 @@
         <v>38108</v>
       </c>
       <c r="B1287" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C1287">
         <v>6</v>
@@ -23124,7 +23121,7 @@
         <v>38353</v>
       </c>
       <c r="B1293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1293">
         <v>170</v>
@@ -23484,7 +23481,7 @@
         <v>40238</v>
       </c>
       <c r="B1314" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1314">
         <v>1</v>
@@ -23841,7 +23838,7 @@
         <v>42095</v>
       </c>
       <c r="B1335" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1335">
         <v>1</v>
@@ -23963,7 +23960,7 @@
         <v>39234</v>
       </c>
       <c r="B1342" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1342">
         <v>1</v>
@@ -24065,7 +24062,7 @@
         <v>41548</v>
       </c>
       <c r="B1348" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1348">
         <v>1</v>
@@ -24133,7 +24130,7 @@
         <v>42005</v>
       </c>
       <c r="B1352" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1352">
         <v>325</v>
@@ -24201,7 +24198,7 @@
         <v>42095</v>
       </c>
       <c r="B1356" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1356">
         <v>499</v>
@@ -24337,7 +24334,7 @@
         <v>38473</v>
       </c>
       <c r="B1364" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C1364">
         <v>7</v>
@@ -24473,7 +24470,7 @@
         <v>39569</v>
       </c>
       <c r="B1372" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1372">
         <v>1</v>
@@ -24490,7 +24487,7 @@
         <v>40026</v>
       </c>
       <c r="B1373" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1373">
         <v>2</v>
@@ -24541,7 +24538,7 @@
         <v>40634</v>
       </c>
       <c r="B1376" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1376">
         <v>1</v>
@@ -25020,7 +25017,7 @@
         <v>40057</v>
       </c>
       <c r="B1404" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1404">
         <v>1</v>
@@ -25122,7 +25119,7 @@
         <v>41122</v>
       </c>
       <c r="B1410" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1410">
         <v>1</v>
@@ -25207,7 +25204,7 @@
         <v>40057</v>
       </c>
       <c r="B1415" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1415">
         <v>80</v>
@@ -25309,7 +25306,7 @@
         <v>40725</v>
       </c>
       <c r="B1421" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1421">
         <v>1</v>
@@ -25377,7 +25374,7 @@
         <v>41852</v>
       </c>
       <c r="B1425" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1425">
         <v>1</v>
@@ -25411,7 +25408,7 @@
         <v>38687</v>
       </c>
       <c r="B1427" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1427">
         <v>64</v>
@@ -25428,7 +25425,7 @@
         <v>42186</v>
       </c>
       <c r="B1428" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1428">
         <v>1</v>
@@ -25479,7 +25476,7 @@
         <v>41456</v>
       </c>
       <c r="B1431" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1431">
         <v>3</v>
@@ -25666,7 +25663,7 @@
         <v>38412</v>
       </c>
       <c r="B1442" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1442">
         <v>358</v>
@@ -25989,7 +25986,7 @@
         <v>39539</v>
       </c>
       <c r="B1461" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1461">
         <v>1</v>
@@ -26162,7 +26159,7 @@
         <v>38930</v>
       </c>
       <c r="B1471" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1471">
         <v>313</v>
@@ -26230,7 +26227,7 @@
         <v>39965</v>
       </c>
       <c r="B1475" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1475">
         <v>222</v>
@@ -26468,7 +26465,7 @@
         <v>40118</v>
       </c>
       <c r="B1489" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1489">
         <v>48</v>
@@ -26689,7 +26686,7 @@
         <v>38657</v>
       </c>
       <c r="B1502" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1502">
         <v>1</v>
@@ -26723,7 +26720,7 @@
         <v>38991</v>
       </c>
       <c r="B1504" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1504">
         <v>1</v>
@@ -26740,7 +26737,7 @@
         <v>42217</v>
       </c>
       <c r="B1505" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1505">
         <v>3</v>
@@ -26774,7 +26771,7 @@
         <v>40360</v>
       </c>
       <c r="B1507" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1507">
         <v>4</v>
@@ -26893,7 +26890,7 @@
         <v>39448</v>
       </c>
       <c r="B1514" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1514">
         <v>144</v>
@@ -27131,7 +27128,7 @@
         <v>42156</v>
       </c>
       <c r="B1528" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1528">
         <v>724</v>
@@ -27437,7 +27434,7 @@
         <v>42095</v>
       </c>
       <c r="B1546" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1546">
         <v>2</v>
@@ -27505,7 +27502,7 @@
         <v>38261</v>
       </c>
       <c r="B1550" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1550">
         <v>2</v>
@@ -27522,7 +27519,7 @@
         <v>39142</v>
       </c>
       <c r="B1551" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1551">
         <v>260</v>
@@ -27607,7 +27604,7 @@
         <v>38749</v>
       </c>
       <c r="B1556" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1556">
         <v>1</v>
@@ -28117,7 +28114,7 @@
         <v>38261</v>
       </c>
       <c r="B1586" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1586">
         <v>2</v>
@@ -28185,7 +28182,7 @@
         <v>38018</v>
       </c>
       <c r="B1590" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1590">
         <v>310</v>
@@ -28222,7 +28219,7 @@
         <v>38473</v>
       </c>
       <c r="B1592" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1592">
         <v>3</v>
@@ -28511,7 +28508,7 @@
         <v>41974</v>
       </c>
       <c r="B1609" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1609">
         <v>230</v>
@@ -28545,7 +28542,7 @@
         <v>40848</v>
       </c>
       <c r="B1611" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1611">
         <v>138</v>
@@ -28664,7 +28661,7 @@
         <v>38443</v>
       </c>
       <c r="B1618" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1618">
         <v>3</v>
@@ -28823,7 +28820,7 @@
         <v>39234</v>
       </c>
       <c r="B1627" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1627">
         <v>1</v>
@@ -28891,7 +28888,7 @@
         <v>41456</v>
       </c>
       <c r="B1631" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1631">
         <v>2</v>
@@ -28908,7 +28905,7 @@
         <v>37987</v>
       </c>
       <c r="B1632" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1632">
         <v>219</v>
@@ -29214,7 +29211,7 @@
         <v>38353</v>
       </c>
       <c r="B1650" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1650">
         <v>2</v>
@@ -29265,7 +29262,7 @@
         <v>42036</v>
       </c>
       <c r="B1653" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1653">
         <v>1</v>
@@ -29333,7 +29330,7 @@
         <v>39904</v>
       </c>
       <c r="B1657" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1657">
         <v>132</v>
@@ -29401,7 +29398,7 @@
         <v>42095</v>
       </c>
       <c r="B1661" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1661">
         <v>1</v>
@@ -29639,7 +29636,7 @@
         <v>39479</v>
       </c>
       <c r="B1675" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1675">
         <v>176</v>
@@ -29707,7 +29704,7 @@
         <v>41153</v>
       </c>
       <c r="B1679" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1679">
         <v>103</v>
@@ -30013,7 +30010,7 @@
         <v>42339</v>
       </c>
       <c r="B1697" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1697">
         <v>1</v>
@@ -30132,7 +30129,7 @@
         <v>39845</v>
       </c>
       <c r="B1704" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1704">
         <v>1</v>
@@ -30268,7 +30265,7 @@
         <v>38534</v>
       </c>
       <c r="B1712" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1712">
         <v>647</v>
@@ -30506,7 +30503,7 @@
         <v>41609</v>
       </c>
       <c r="B1726" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1726">
         <v>105</v>
@@ -30778,7 +30775,7 @@
         <v>38626</v>
       </c>
       <c r="B1742" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1742">
         <v>164</v>
@@ -31084,7 +31081,7 @@
         <v>40756</v>
       </c>
       <c r="B1760" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1760">
         <v>295</v>
@@ -31475,7 +31472,7 @@
         <v>40725</v>
       </c>
       <c r="B1783" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1783">
         <v>1</v>
@@ -31492,7 +31489,7 @@
         <v>38292</v>
       </c>
       <c r="B1784" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1784">
         <v>1</v>
@@ -31543,7 +31540,7 @@
         <v>39295</v>
       </c>
       <c r="B1787" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1787">
         <v>1</v>
@@ -31832,7 +31829,7 @@
         <v>39417</v>
       </c>
       <c r="B1804" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1804">
         <v>102</v>
@@ -32036,7 +32033,7 @@
         <v>40148</v>
       </c>
       <c r="B1816" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1816">
         <v>1</v>
@@ -32495,7 +32492,7 @@
         <v>40664</v>
       </c>
       <c r="B1843" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1843">
         <v>325</v>
@@ -33056,7 +33053,7 @@
         <v>41913</v>
       </c>
       <c r="B1876" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1876">
         <v>2</v>
@@ -33694,7 +33691,7 @@
         <v>40544</v>
       </c>
       <c r="B1913" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1913">
         <v>1</v>
@@ -33762,7 +33759,7 @@
         <v>38200</v>
       </c>
       <c r="B1917" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1917">
         <v>1</v>
@@ -33898,7 +33895,7 @@
         <v>39479</v>
       </c>
       <c r="B1925" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1925">
         <v>1</v>
@@ -34340,7 +34337,7 @@
         <v>39845</v>
       </c>
       <c r="B1951" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1951">
         <v>101</v>
@@ -34408,7 +34405,7 @@
         <v>38139</v>
       </c>
       <c r="B1955" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1955">
         <v>4</v>
@@ -34442,7 +34439,7 @@
         <v>39783</v>
       </c>
       <c r="B1957" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1957">
         <v>51</v>
@@ -34561,7 +34558,7 @@
         <v>38353</v>
       </c>
       <c r="B1964" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1964">
         <v>1</v>
@@ -34632,7 +34629,7 @@
         <v>39203</v>
       </c>
       <c r="B1968" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1968">
         <v>1</v>
@@ -34918,7 +34915,7 @@
         <v>38353</v>
       </c>
       <c r="B1985" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1985">
         <v>1</v>
@@ -35071,7 +35068,7 @@
         <v>38626</v>
       </c>
       <c r="B1994" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1994">
         <v>3</v>
@@ -35717,7 +35714,7 @@
         <v>39661</v>
       </c>
       <c r="B2032" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2032">
         <v>357</v>
@@ -35768,7 +35765,7 @@
         <v>41699</v>
       </c>
       <c r="B2035" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2035">
         <v>163</v>
@@ -35836,7 +35833,7 @@
         <v>41091</v>
       </c>
       <c r="B2039" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2039">
         <v>273</v>
@@ -35870,7 +35867,7 @@
         <v>38078</v>
       </c>
       <c r="B2041" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2041">
         <v>494</v>
@@ -36414,7 +36411,7 @@
         <v>39173</v>
       </c>
       <c r="B2073" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2073">
         <v>253</v>
@@ -36516,7 +36513,7 @@
         <v>38565</v>
       </c>
       <c r="B2079" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2079">
         <v>3</v>
@@ -36958,7 +36955,7 @@
         <v>41791</v>
       </c>
       <c r="B2105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2105">
         <v>370</v>
@@ -37247,7 +37244,7 @@
         <v>38047</v>
       </c>
       <c r="B2122" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2122">
         <v>1</v>
@@ -37264,7 +37261,7 @@
         <v>41974</v>
       </c>
       <c r="B2123" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2123">
         <v>2</v>
@@ -37519,7 +37516,7 @@
         <v>42309</v>
       </c>
       <c r="B2138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2138">
         <v>1</v>
@@ -37536,7 +37533,7 @@
         <v>40238</v>
       </c>
       <c r="B2139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2139">
         <v>129</v>
@@ -37638,7 +37635,7 @@
         <v>41061</v>
       </c>
       <c r="B2145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2145">
         <v>1</v>
@@ -37672,7 +37669,7 @@
         <v>38412</v>
       </c>
       <c r="B2147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2147">
         <v>6</v>
@@ -37842,7 +37839,7 @@
         <v>40575</v>
       </c>
       <c r="B2157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2157">
         <v>162</v>
@@ -38063,7 +38060,7 @@
         <v>41730</v>
       </c>
       <c r="B2170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2170">
         <v>157</v>
@@ -38590,7 +38587,7 @@
         <v>41821</v>
       </c>
       <c r="B2201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2201">
         <v>517</v>
@@ -38624,7 +38621,7 @@
         <v>39203</v>
       </c>
       <c r="B2203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2203">
         <v>335</v>
@@ -38675,7 +38672,7 @@
         <v>38596</v>
       </c>
       <c r="B2206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2206">
         <v>169</v>
@@ -38794,7 +38791,7 @@
         <v>38412</v>
       </c>
       <c r="B2213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2213">
         <v>2</v>
@@ -39134,7 +39131,7 @@
         <v>42248</v>
       </c>
       <c r="B2233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2233">
         <v>1</v>
@@ -39423,7 +39420,7 @@
         <v>38534</v>
       </c>
       <c r="B2250" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2250">
         <v>3</v>
@@ -39491,7 +39488,7 @@
         <v>38139</v>
       </c>
       <c r="B2254" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2254">
         <v>625</v>
@@ -39565,7 +39562,7 @@
         <v>40756</v>
       </c>
       <c r="B2258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2258">
         <v>2</v>
@@ -39582,7 +39579,7 @@
         <v>42248</v>
       </c>
       <c r="B2259" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2259">
         <v>549</v>
@@ -39599,7 +39596,7 @@
         <v>40330</v>
       </c>
       <c r="B2260" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2260">
         <v>218</v>
@@ -39888,7 +39885,7 @@
         <v>38899</v>
       </c>
       <c r="B2277" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2277">
         <v>2</v>
@@ -39922,7 +39919,7 @@
         <v>40725</v>
       </c>
       <c r="B2279" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2279">
         <v>2</v>
@@ -40092,7 +40089,7 @@
         <v>39600</v>
       </c>
       <c r="B2289" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2289">
         <v>2</v>
@@ -40347,7 +40344,7 @@
         <v>40695</v>
       </c>
       <c r="B2304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2304">
         <v>269</v>
@@ -40381,7 +40378,7 @@
         <v>39934</v>
       </c>
       <c r="B2306" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2306">
         <v>1</v>
@@ -40500,7 +40497,7 @@
         <v>42186</v>
       </c>
       <c r="B2313" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2313">
         <v>942</v>
@@ -40619,7 +40616,7 @@
         <v>40391</v>
       </c>
       <c r="B2320" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2320">
         <v>222</v>
@@ -40806,7 +40803,7 @@
         <v>41913</v>
       </c>
       <c r="B2331" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2331">
         <v>1</v>
@@ -41299,7 +41296,7 @@
         <v>40330</v>
       </c>
       <c r="B2360" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2360">
         <v>2</v>
@@ -41435,7 +41432,7 @@
         <v>38047</v>
       </c>
       <c r="B2368" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2368">
         <v>4</v>
@@ -41673,7 +41670,7 @@
         <v>39114</v>
       </c>
       <c r="B2382" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2382">
         <v>187</v>
@@ -41792,7 +41789,7 @@
         <v>40969</v>
       </c>
       <c r="B2389" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2389">
         <v>262</v>
@@ -41911,7 +41908,7 @@
         <v>39753</v>
       </c>
       <c r="B2396" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2396">
         <v>1</v>
@@ -41945,7 +41942,7 @@
         <v>41548</v>
       </c>
       <c r="B2398" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2398">
         <v>1</v>
@@ -42370,7 +42367,7 @@
         <v>41030</v>
       </c>
       <c r="B2423" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2423">
         <v>245</v>
@@ -42676,7 +42673,7 @@
         <v>42036</v>
       </c>
       <c r="B2441" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2441">
         <v>1</v>
@@ -42710,7 +42707,7 @@
         <v>42217</v>
       </c>
       <c r="B2443" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2443">
         <v>963</v>
@@ -42863,7 +42860,7 @@
         <v>39600</v>
       </c>
       <c r="B2452" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2452">
         <v>1</v>
@@ -43084,7 +43081,7 @@
         <v>38384</v>
       </c>
       <c r="B2465" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2465">
         <v>7</v>
@@ -43237,7 +43234,7 @@
         <v>41000</v>
       </c>
       <c r="B2474" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2474">
         <v>1</v>
@@ -43373,7 +43370,7 @@
         <v>39630</v>
       </c>
       <c r="B2482" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2482">
         <v>345</v>
@@ -43390,7 +43387,7 @@
         <v>41395</v>
       </c>
       <c r="B2483" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2483">
         <v>148</v>
@@ -43458,7 +43455,7 @@
         <v>38808</v>
       </c>
       <c r="B2487" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2487">
         <v>1</v>
@@ -43543,7 +43540,7 @@
         <v>41944</v>
       </c>
       <c r="B2492" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2492">
         <v>2</v>
@@ -44090,7 +44087,7 @@
         <v>42005</v>
       </c>
       <c r="B2524" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2524">
         <v>1</v>
@@ -44124,7 +44121,7 @@
         <v>39722</v>
       </c>
       <c r="B2526" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2526">
         <v>60</v>
@@ -44311,7 +44308,7 @@
         <v>40148</v>
       </c>
       <c r="B2537" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2537">
         <v>71</v>
@@ -44430,7 +44427,7 @@
         <v>39479</v>
       </c>
       <c r="B2544" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2544">
         <v>1</v>
@@ -44515,7 +44512,7 @@
         <v>42278</v>
       </c>
       <c r="B2549" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2549">
         <v>1</v>
@@ -44566,7 +44563,7 @@
         <v>40238</v>
       </c>
       <c r="B2552" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2552">
         <v>1</v>
@@ -44940,7 +44937,7 @@
         <v>38718</v>
       </c>
       <c r="B2574" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2574">
         <v>2</v>
@@ -44974,7 +44971,7 @@
         <v>38200</v>
       </c>
       <c r="B2576" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2576">
         <v>1</v>
@@ -45144,7 +45141,7 @@
         <v>41579</v>
       </c>
       <c r="B2586" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2586">
         <v>1</v>
@@ -45351,7 +45348,7 @@
         <v>38384</v>
       </c>
       <c r="B2598" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2598">
         <v>3</v>
@@ -45487,7 +45484,7 @@
         <v>38534</v>
       </c>
       <c r="B2606" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2606">
         <v>4</v>
@@ -45504,7 +45501,7 @@
         <v>38718</v>
       </c>
       <c r="B2607" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2607">
         <v>1</v>
@@ -45929,7 +45926,7 @@
         <v>38565</v>
       </c>
       <c r="B2632" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2632">
         <v>2</v>
@@ -46289,7 +46286,7 @@
         <v>39142</v>
       </c>
       <c r="B2653" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2653">
         <v>2</v>
@@ -46374,7 +46371,7 @@
         <v>38961</v>
       </c>
       <c r="B2658" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2658">
         <v>2</v>
@@ -46408,7 +46405,7 @@
         <v>38322</v>
       </c>
       <c r="B2660" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2660">
         <v>5</v>
@@ -46442,7 +46439,7 @@
         <v>39052</v>
       </c>
       <c r="B2662" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2662">
         <v>84</v>
@@ -46544,7 +46541,7 @@
         <v>40360</v>
       </c>
       <c r="B2668" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2668">
         <v>268</v>
@@ -46578,7 +46575,7 @@
         <v>40026</v>
       </c>
       <c r="B2670" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2670">
         <v>201</v>
@@ -46595,7 +46592,7 @@
         <v>41883</v>
       </c>
       <c r="B2671" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2671">
         <v>380</v>
@@ -46748,7 +46745,7 @@
         <v>39569</v>
       </c>
       <c r="B2680" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2680">
         <v>323</v>
@@ -47074,7 +47071,7 @@
         <v>38443</v>
       </c>
       <c r="B2699" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2699">
         <v>1</v>
@@ -47108,7 +47105,7 @@
         <v>38412</v>
       </c>
       <c r="B2701" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2701">
         <v>5</v>
@@ -47652,7 +47649,7 @@
         <v>38749</v>
       </c>
       <c r="B2733" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2733">
         <v>1</v>
@@ -47774,7 +47771,7 @@
         <v>39326</v>
       </c>
       <c r="B2740" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2740">
         <v>2</v>
@@ -47876,7 +47873,7 @@
         <v>40940</v>
       </c>
       <c r="B2746" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2746">
         <v>1</v>
@@ -47893,7 +47890,7 @@
         <v>38292</v>
       </c>
       <c r="B2747" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2747">
         <v>1</v>
@@ -48012,7 +48009,7 @@
         <v>38657</v>
       </c>
       <c r="B2754" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2754">
         <v>1</v>
@@ -48046,7 +48043,7 @@
         <v>38626</v>
       </c>
       <c r="B2756" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2756">
         <v>1</v>
@@ -48063,7 +48060,7 @@
         <v>39873</v>
       </c>
       <c r="B2757" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2757">
         <v>115</v>
@@ -48131,7 +48128,7 @@
         <v>42248</v>
       </c>
       <c r="B2761" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2761">
         <v>1</v>
@@ -48199,7 +48196,7 @@
         <v>38018</v>
       </c>
       <c r="B2765" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2765">
         <v>1</v>
@@ -48216,7 +48213,7 @@
         <v>38473</v>
       </c>
       <c r="B2766" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2766">
         <v>7</v>
@@ -48318,7 +48315,7 @@
         <v>40210</v>
       </c>
       <c r="B2772" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2772">
         <v>86</v>
@@ -48335,7 +48332,7 @@
         <v>40179</v>
       </c>
       <c r="B2773" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2773">
         <v>102</v>
@@ -48369,7 +48366,7 @@
         <v>41214</v>
       </c>
       <c r="B2775" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2775">
         <v>87</v>
@@ -48471,7 +48468,7 @@
         <v>38169</v>
       </c>
       <c r="B2781" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2781">
         <v>698</v>
@@ -48627,7 +48624,7 @@
         <v>39873</v>
       </c>
       <c r="B2790" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2790">
         <v>1</v>
@@ -48797,7 +48794,7 @@
         <v>40179</v>
       </c>
       <c r="B2800" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2800">
         <v>4</v>
@@ -48831,7 +48828,7 @@
         <v>38231</v>
       </c>
       <c r="B2802" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2802">
         <v>1</v>
@@ -48984,7 +48981,7 @@
         <v>40969</v>
       </c>
       <c r="B2811" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2811">
         <v>1</v>
@@ -49001,7 +48998,7 @@
         <v>41183</v>
       </c>
       <c r="B2812" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2812">
         <v>76</v>
@@ -49137,7 +49134,7 @@
         <v>42095</v>
       </c>
       <c r="B2820" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2820">
         <v>1</v>
@@ -49375,7 +49372,7 @@
         <v>38504</v>
       </c>
       <c r="B2834" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2834">
         <v>3</v>
@@ -49613,7 +49610,7 @@
         <v>38718</v>
       </c>
       <c r="B2848" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2848">
         <v>104</v>
@@ -49800,7 +49797,7 @@
         <v>38231</v>
       </c>
       <c r="B2859" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2859">
         <v>2</v>
@@ -50143,7 +50140,7 @@
         <v>39448</v>
       </c>
       <c r="B2879" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2879">
         <v>1</v>
@@ -50500,7 +50497,7 @@
         <v>38292</v>
       </c>
       <c r="B2900" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2900">
         <v>165</v>
@@ -50602,7 +50599,7 @@
         <v>39539</v>
       </c>
       <c r="B2906" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2906">
         <v>267</v>
@@ -50755,7 +50752,7 @@
         <v>41122</v>
       </c>
       <c r="B2915" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2915">
         <v>199</v>
@@ -50789,7 +50786,7 @@
         <v>39083</v>
       </c>
       <c r="B2917" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2917">
         <v>156</v>
@@ -50891,7 +50888,7 @@
         <v>38504</v>
       </c>
       <c r="B2923" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2923">
         <v>498</v>
@@ -50942,7 +50939,7 @@
         <v>39022</v>
       </c>
       <c r="B2926" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2926">
         <v>1</v>
@@ -51010,7 +51007,7 @@
         <v>41579</v>
       </c>
       <c r="B2930" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2930">
         <v>93</v>
@@ -51061,7 +51058,7 @@
         <v>41913</v>
       </c>
       <c r="B2933" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2933">
         <v>287</v>
@@ -51180,7 +51177,7 @@
         <v>40878</v>
       </c>
       <c r="B2940" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2940">
         <v>143</v>
@@ -51571,7 +51568,7 @@
         <v>38504</v>
       </c>
       <c r="B2963" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2963">
         <v>7</v>
@@ -51877,7 +51874,7 @@
         <v>41061</v>
       </c>
       <c r="B2981" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2981">
         <v>244</v>
@@ -51996,7 +51993,7 @@
         <v>38749</v>
       </c>
       <c r="B2988" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2988">
         <v>170</v>
@@ -52013,7 +52010,7 @@
         <v>40603</v>
       </c>
       <c r="B2989" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2989">
         <v>1</v>
@@ -52047,7 +52044,7 @@
         <v>38869</v>
       </c>
       <c r="B2991" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2991">
         <v>323</v>
@@ -52237,7 +52234,7 @@
         <v>39934</v>
       </c>
       <c r="B3002" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3002">
         <v>188</v>
@@ -52730,7 +52727,7 @@
         <v>38322</v>
       </c>
       <c r="B3031" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3031">
         <v>98</v>
@@ -53121,7 +53118,7 @@
         <v>38443</v>
       </c>
       <c r="B3054" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3054">
         <v>1</v>
@@ -53189,7 +53186,7 @@
         <v>41365</v>
       </c>
       <c r="B3058" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3058">
         <v>128</v>
@@ -53223,7 +53220,7 @@
         <v>38687</v>
       </c>
       <c r="B3060" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3060">
         <v>1</v>
@@ -53376,7 +53373,7 @@
         <v>41944</v>
       </c>
       <c r="B3069" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3069">
         <v>279</v>
@@ -53498,7 +53495,7 @@
         <v>41671</v>
       </c>
       <c r="B3076" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3076">
         <v>130</v>
@@ -53549,7 +53546,7 @@
         <v>39630</v>
       </c>
       <c r="B3079" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3079">
         <v>1</v>
@@ -53566,7 +53563,7 @@
         <v>41000</v>
       </c>
       <c r="B3080" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3080">
         <v>240</v>
@@ -53773,7 +53770,7 @@
         <v>40087</v>
       </c>
       <c r="B3092" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3092">
         <v>1</v>
@@ -54252,7 +54249,7 @@
         <v>38657</v>
       </c>
       <c r="B3120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3120">
         <v>146</v>
@@ -54320,7 +54317,7 @@
         <v>38078</v>
       </c>
       <c r="B3124" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3124">
         <v>2</v>
@@ -54932,7 +54929,7 @@
         <v>39814</v>
       </c>
       <c r="B3160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3160">
         <v>79</v>
@@ -55000,7 +54997,7 @@
         <v>38869</v>
       </c>
       <c r="B3164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3164">
         <v>2</v>
@@ -55017,7 +55014,7 @@
         <v>39600</v>
       </c>
       <c r="B3165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3165">
         <v>1</v>
@@ -55238,7 +55235,7 @@
         <v>38473</v>
       </c>
       <c r="B3178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3178">
         <v>1</v>
@@ -55510,7 +55507,7 @@
         <v>38626</v>
       </c>
       <c r="B3194" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3194">
         <v>2</v>
@@ -55544,7 +55541,7 @@
         <v>42278</v>
       </c>
       <c r="B3196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3196">
         <v>422</v>
@@ -55578,7 +55575,7 @@
         <v>41426</v>
       </c>
       <c r="B3198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3198">
         <v>2</v>
@@ -55629,7 +55626,7 @@
         <v>38443</v>
       </c>
       <c r="B3201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3201">
         <v>5</v>
@@ -55663,7 +55660,7 @@
         <v>40391</v>
       </c>
       <c r="B3203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3203">
         <v>1</v>
@@ -55782,7 +55779,7 @@
         <v>39295</v>
       </c>
       <c r="B3210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3210">
         <v>2</v>
@@ -55901,7 +55898,7 @@
         <v>38200</v>
       </c>
       <c r="B3217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3217">
         <v>2</v>
@@ -56105,7 +56102,7 @@
         <v>39995</v>
       </c>
       <c r="B3229" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3229">
         <v>303</v>
@@ -56482,7 +56479,7 @@
         <v>37987</v>
       </c>
       <c r="B3251" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C3251">
         <v>1</v>
@@ -56754,7 +56751,7 @@
         <v>39965</v>
       </c>
       <c r="B3267" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3267">
         <v>1</v>
@@ -56873,7 +56870,7 @@
         <v>40634</v>
       </c>
       <c r="B3274" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3274">
         <v>226</v>
@@ -57287,7 +57284,7 @@
         <v>38749</v>
       </c>
       <c r="B3298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3298">
         <v>1</v>
@@ -57304,7 +57301,7 @@
         <v>40269</v>
       </c>
       <c r="B3299" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3299">
         <v>146</v>
@@ -57406,7 +57403,7 @@
         <v>38473</v>
       </c>
       <c r="B3305" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3305">
         <v>530</v>
@@ -57542,7 +57539,7 @@
         <v>41791</v>
       </c>
       <c r="B3313" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3313">
         <v>1</v>
@@ -57712,7 +57709,7 @@
         <v>42064</v>
       </c>
       <c r="B3323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3323">
         <v>514</v>
@@ -57831,7 +57828,7 @@
         <v>42186</v>
       </c>
       <c r="B3330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3330">
         <v>1</v>
@@ -57882,7 +57879,7 @@
         <v>42125</v>
       </c>
       <c r="B3333" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3333">
         <v>675</v>
@@ -58018,7 +58015,7 @@
         <v>38534</v>
       </c>
       <c r="B3341" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3341">
         <v>9</v>
@@ -58035,7 +58032,7 @@
         <v>38565</v>
       </c>
       <c r="B3342" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3342">
         <v>6</v>
@@ -58052,7 +58049,7 @@
         <v>42309</v>
       </c>
       <c r="B3343" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3343">
         <v>353</v>
@@ -58106,7 +58103,7 @@
         <v>39326</v>
       </c>
       <c r="B3346" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3346">
         <v>152</v>
@@ -58157,7 +58154,7 @@
         <v>38808</v>
       </c>
       <c r="B3349" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3349">
         <v>1</v>
@@ -58242,7 +58239,7 @@
         <v>38139</v>
       </c>
       <c r="B3354" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3354">
         <v>2</v>
@@ -58330,7 +58327,7 @@
         <v>40026</v>
       </c>
       <c r="B3359" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3359">
         <v>2</v>
@@ -58466,7 +58463,7 @@
         <v>40299</v>
       </c>
       <c r="B3367" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3367">
         <v>1</v>
@@ -58653,7 +58650,7 @@
         <v>39692</v>
       </c>
       <c r="B3378" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3378">
         <v>88</v>
@@ -58704,7 +58701,7 @@
         <v>38322</v>
       </c>
       <c r="B3381" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3381">
         <v>1</v>
@@ -58959,7 +58956,7 @@
         <v>41426</v>
       </c>
       <c r="B3396" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3396">
         <v>178</v>
@@ -59214,7 +59211,7 @@
         <v>42370</v>
       </c>
       <c r="B3411" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3411">
         <v>334</v>
@@ -59248,7 +59245,7 @@
         <v>42552</v>
       </c>
       <c r="B3413" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3413">
         <v>622</v>
@@ -59418,7 +59415,7 @@
         <v>42461</v>
       </c>
       <c r="B3423" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3423">
         <v>1</v>
@@ -59554,7 +59551,7 @@
         <v>42644</v>
       </c>
       <c r="B3431" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3431">
         <v>356</v>
@@ -59673,7 +59670,7 @@
         <v>42583</v>
       </c>
       <c r="B3438" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3438">
         <v>669</v>
@@ -59792,7 +59789,7 @@
         <v>42583</v>
       </c>
       <c r="B3445" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3445">
         <v>1</v>
@@ -59911,7 +59908,7 @@
         <v>42705</v>
       </c>
       <c r="B3452" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3452">
         <v>2</v>
@@ -59996,7 +59993,7 @@
         <v>42583</v>
       </c>
       <c r="B3457" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3457">
         <v>1</v>
@@ -60013,7 +60010,7 @@
         <v>42675</v>
       </c>
       <c r="B3458" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3458">
         <v>418</v>
@@ -60237,7 +60234,7 @@
         <v>42461</v>
       </c>
       <c r="B3471" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3471">
         <v>428</v>
@@ -60325,7 +60322,7 @@
         <v>42675</v>
       </c>
       <c r="B3476" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3476">
         <v>2</v>
@@ -60393,7 +60390,7 @@
         <v>42552</v>
       </c>
       <c r="B3480" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3480">
         <v>1</v>
@@ -60444,7 +60441,7 @@
         <v>42614</v>
       </c>
       <c r="B3483" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3483">
         <v>1</v>
@@ -60733,7 +60730,7 @@
         <v>42491</v>
       </c>
       <c r="B3500" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3500">
         <v>454</v>
@@ -60784,7 +60781,7 @@
         <v>42430</v>
       </c>
       <c r="B3503" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3503">
         <v>1</v>
@@ -60988,7 +60985,7 @@
         <v>42675</v>
       </c>
       <c r="B3515" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3515">
         <v>1</v>
@@ -61243,7 +61240,7 @@
         <v>42401</v>
       </c>
       <c r="B3530" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3530">
         <v>470</v>
@@ -61277,7 +61274,7 @@
         <v>42522</v>
       </c>
       <c r="B3532" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3532">
         <v>1</v>
@@ -61311,7 +61308,7 @@
         <v>42552</v>
       </c>
       <c r="B3534" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3534">
         <v>2</v>
@@ -61804,7 +61801,7 @@
         <v>42522</v>
       </c>
       <c r="B3563" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3563">
         <v>1</v>
@@ -62116,7 +62113,7 @@
         <v>42491</v>
       </c>
       <c r="B3581" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3581">
         <v>1</v>
@@ -62337,7 +62334,7 @@
         <v>42430</v>
       </c>
       <c r="B3594" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3594">
         <v>519</v>
@@ -62626,7 +62623,7 @@
         <v>42705</v>
       </c>
       <c r="B3611" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3611">
         <v>1</v>
@@ -63051,7 +63048,7 @@
         <v>42522</v>
       </c>
       <c r="B3636" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3636">
         <v>499</v>
@@ -63071,7 +63068,7 @@
         <v>42644</v>
       </c>
       <c r="B3637" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3637">
         <v>1</v>
@@ -63088,7 +63085,7 @@
         <v>42705</v>
       </c>
       <c r="B3638" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3638">
         <v>388</v>
@@ -63329,7 +63326,7 @@
         <v>42401</v>
       </c>
       <c r="B3652" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3652">
         <v>1</v>
@@ -63499,7 +63496,7 @@
         <v>42614</v>
       </c>
       <c r="B3662" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3662">
         <v>427</v>
